--- a/master.xlsx
+++ b/master.xlsx
@@ -748,8 +748,7 @@
     <t>Pathogenic variants in DSP cause DCM due to decreased gene product level or altered gene product sequence due to a variety of mechanisms. Both missense and truncating mutations have been reported in DCM cases, however, there is significantly more evidence in support of truncating variants being pathogenic. DSP-related DCM is inherited in an autosomal dominant manner, and disease is generally penetrant in families with an increased burden of left ventricular fibrosis and ventricular tachyarrhythmia. Pathogenic DSP variants are likely to account for approximately 2-3% of familial DCM cases (PMID: 24503780; 23022708). Of note DSP is associated with multiple phenotypes which are heterogeneous and overlapping (including DCM, DCM with cutaneous features, ARVC, and Carvajal syndrome). There does not appear to be distinct mechanisms leading to different phenotypes https://search.clinicalgenome.org/kb/gene-dosage/HGNC:3052.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Pathogenic variants in DSP cause DCM due to **decreased gene product level or altered gene product sequence** due to a variety of mechanisms. &lt;br/&gt;&lt;br/&gt; Both missense and truncating mutations have been reported in DCM cases, however, there is significantly more evidence in support of truncating variants being pathogenic.&lt;br/&gt;&lt;br/&gt; DSP-related DCM is inherited in an autosomal dominant manner, and disease is generally penetrant in families with an increased burden of left ventricular fibrosis and ventricular tachyarrhythmia. Pathogenic DSP variants are likely to account for approximately 2-3% of familial DCM cases (PMID: 24503780; 23022708).&lt;br/&gt; Of note DSP is associated with multiple phenotypes which are heterogeneous and overlapping (including DCM, DCM with cutaneous features, ARVC, and Carvajal syndrome). There does not appear to be distinct mechanisms leading to different phenotypes https://search.clinicalgenome.org/kb/gene-dosage/HGNC:3052.</t>
+    <t>Pathogenic variants in DSP cause DCM due to **decreased gene product level or altered gene product sequence** due to a variety of mechanisms. &lt;br/&gt;&lt;br/&gt; Both missense and truncating mutations have been reported in DCM cases, however, there is significantly more evidence in support of truncating variants being pathogenic.&lt;br/&gt;&lt;br/&gt; DSP-related DCM is inherited in an autosomal dominant manner, and disease is generally penetrant in families with an increased burden of left ventricular fibrosis and ventricular tachyarrhythmia. Pathogenic DSP variants are likely to account for approximately 2-3% of familial DCM cases (PMID: 24503780; 23022708).&lt;br/&gt; Of note DSP is associated with multiple phenotypes which are heterogeneous and overlapping (including DCM, DCM with cutaneous features, ARVC, and Carvajal syndrome). There does not appear to be distinct mechanisms leading to different phenotypes https://search.clinicalgenome.org/kb/gene-dosage/HGNC:3052.</t>
   </si>
   <si>
     <t>frameshift_variant;missense_variant;stop_gained_NMD_triggering;splice_donor_variant_NMD_triggering;splice_acceptor_variant_NMD_triggering</t>
@@ -1091,8 +1090,7 @@
     <t>Almost all evidence derived from: NM_000218.3(KCNQ1):c.421G&gt;A (p.Val141Met); NM_000218.3(KCNQ1):c.919G&gt;C (p.Val307Leu)</t>
   </si>
   <si>
-    <t>Almost all evidence for KCNQ1 as a cause of SQTS is derived from a single variant (p.Val141Met) identified in 9 unrelated probands. All 9 cases presented with severe bradycardia in-utero or at birth and in 6 atrial fibrillation was also reported. In one case complete atrioventricular block was documented. (PMIDs: 24818999; 26279191; 16109388; 24380499; 25974115; 28491547). Five other variants have been reported for SQTS, but the phenotypic features of SQTS for 4 of these have been unclear or functional data supporting the mechanism of disease lacking in the published manuscripts. For the fifth additionally reported variant, 70-year-old patient presented with 'idiopathic VF' and a short QT interval, a KCNQ1 variant, p.Val307Leu, was reported as the likely genetic culprit, with in vitro studies reporting a gain-of-function effect of the mutant (Bellocq et al, Circ 2004).
-Functional characterisation in cell models confirms a gain of function mechanism for Val141Met and Val307Leu. Four cases of Val141Met are reported as de novo without noted confirmed paternity. Importantly, in none of the p.Val141Met cases was cardiac arrest or sudden cardiac death described. Note: loss-of-function variants in KCNQ1 are associated with Long QT Syndrome (LQTS).</t>
+    <t>Almost all evidence for KCNQ1 as a cause of SQTS is derived from a single variant (p.Val141Met) identified in 9 unrelated probands. All 9 cases presented with severe bradycardia in-utero or at birth and in 6 atrial fibrillation was also reported. In one case complete atrioventricular block was documented. (PMIDs: 24818999; 26279191; 16109388; 24380499; 25974115; 28491547). Five other variants have been reported for SQTS, but the phenotypic features of SQTS for 4 of these have been unclear or functional data supporting the mechanism of disease lacking in the published manuscripts. For the fifth additionally reported variant, 70-year-old patient presented with 'idiopathic VF' and a short QT interval, a KCNQ1 variant, p.Val307Leu, was reported as the likely genetic culprit, with in vitro studies reporting a gain-of-function effect of the mutant (Bellocq et al, Circ 2004). Functional characterisation in cell models confirms a gain of function mechanism for Val141Met and Val307Leu. Four cases of Val141Met are reported as de novo without noted confirmed paternity. Importantly, in none of the p.Val141Met cases was cardiac arrest or sudden cardiac death described. Note: loss-of-function variants in KCNQ1 are associated with Long QT Syndrome (LQTS).</t>
   </si>
   <si>
     <t>Almost all evidence for KCNQ1 as a cause of SQTS is derived from a single variant (p.Val141Met) identified in 9 unrelated probands. All 9 cases presented with severe bradycardia in-utero or at birth and in 6 atrial fibrillation was also reported. In one case complete atrioventricular block was documented. (PMIDs: 24818999; 26279191; 16109388; 24380499; 25974115; 28491547).&lt;br/&gt;&lt;br/&gt; Five other variants have been reported for SQTS, but the phenotypic features of SQTS for 4 of these have been unclear or functional data supporting the mechanism of disease lacking in the published manuscripts. For the fifth additionally reported variant, 70-year-old patient presented with 'idiopathic VF' and a short QT interval, a KCNQ1 variant, p.Val307Leu, was reported as the likely genetic culprit, with in vitro studies reporting a gain-of-function effect of the mutant (Bellocq et al, Circ 2004).&lt;br/&gt;&lt;br/&gt; Functional characterisation in cell models confirms a gain of function mechanism for Val141Met and Val307Leu.&lt;br/&gt; Four cases of Val141Met are reported as de novo without noted confirmed paternity. Importantly, in none of the p.Val141Met cases was cardiac arrest or sudden cardiac death described. &lt;br/&gt;Note: loss-of-function variants in KCNQ1 are associated with Long QT Syndrome (LQTS).</t>
@@ -1434,8 +1432,7 @@
     <t>RAF1-related Noonan syndrome</t>
   </si>
   <si>
-    <t xml:space="preserve">RAF1 variants are responsible for ~5% of Noonan syndrome cases. RAF1-related Noonan syndrome is inherited as an autosomal dominant condition. The mechanism is likely RAF1 gain of function, due to missense variants leading to activation of the Ras-MAPK pathway. The penetrance of hypertrophic cardiomyopathy is higher in patients with RAF1 variants, compared to other forms of Noonan syndrome. There is no definite evidence of RAF1 variants causing isolated cardiac disease without other features of Noonan syndrome, but RAF1 variants have been identified in multiple patients who were being investigated for HCM, indicating that the syndromic phenotype can be subtle and may be underdiagnosed. Since cardiac involvement can be the initial presentation in some cases, RAF1 should be considered in the differential diagnosis of HCM. There is evidence for a genotype-phenotype correlation, with variants in the CR2 domain of RAF1 more likely to be associated with HCM. There is a further mutational hotspot in the kinase domain of CR3, but pathogenic variants have also been identified outside these hotspots. There are reports of patients with chromosomal duplications including RAF1, but their phenotype is relatively non-specific and there is no definitive evidence that whole-gene duplications cause Noonan syndrome._x000D_
-</t>
+    <t>RAF1 variants are responsible for ~5% of Noonan syndrome cases. RAF1-related Noonan syndrome is inherited as an autosomal dominant condition. The mechanism is likely RAF1 gain of function, due to missense variants leading to activation of the Ras-MAPK pathway. The penetrance of hypertrophic cardiomyopathy is higher in patients with RAF1 variants, compared to other forms of Noonan syndrome. There is no definite evidence of RAF1 variants causing isolated cardiac disease without other features of Noonan syndrome, but RAF1 variants have been identified in multiple patients who were being investigated for HCM, indicating that the syndromic phenotype can be subtle and may be underdiagnosed. Since cardiac involvement can be the initial presentation in some cases, RAF1 should be considered in the differential diagnosis of HCM. There is evidence for a genotype-phenotype correlation, with variants in the CR2 domain of RAF1 more likely to be associated with HCM. There is a further mutational hotspot in the kinase domain of CR3, but pathogenic variants have also been identified outside these hotspots. There are reports of patients with chromosomal duplications including RAF1, but their phenotype is relatively non-specific and there is no definitive evidence that whole-gene duplications cause Noonan syndrome.</t>
   </si>
   <si>
     <t>RAF1 variants are responsible for ~5% of Noonan syndrome cases. RAF1-related Noonan syndrome is inherited as an autosomal dominant condition.&lt;br/&gt; The mechanism is likely RAF1 gain of function, due to missense variants leading to activation of the Ras-MAPK pathway.&lt;br/&gt;  The penetrance of hypertrophic cardiomyopathy is higher in patients with RAF1 variants, compared to other forms of Noonan syndrome. There is no definite evidence of RAF1 variants causing isolated cardiac disease without other features of Noonan syndrome, but RAF1 variants have been identified in multiple patients who were being investigated for HCM, indicating that the syndromic phenotype can be subtle and may be underdiagnosed. Since cardiac involvement can be the initial presentation in some cases, RAF1 should be considered in the differential diagnosis of HCM.&lt;br/&gt; There is evidence for a genotype-phenotype correlation, with variants in the CR2 domain of RAF1 more likely to be associated with HCM. There is a further mutational hotspot in the kinase domain of CR3, but pathogenic variants have also been identified outside these hotspots.&lt;br/&gt; There are reports of patients with chromosomal duplications including RAF1, but their phenotype is relatively non-specific and there is no definitive evidence that whole-gene duplications cause Noonan syndrome.</t>
@@ -1687,8 +1684,7 @@
     <t>NM_024334.3(TMEM43):c.1073C&gt;T (p.Ser358Leu)</t>
   </si>
   <si>
-    <t>TMEM43-related ARVC is due to altered gene product sequence. Pathogenic variants in TMEM43 are a rare cause of ARVC (PMID: 20301310). The majority of genetic evidence comes from one founder missense variant, (NM_024334.3, c.1073C&gt;T (p.S358L)) (PMID 18313022; 21214875; 23812740; 20301310; 24598986; 33831308). This was originally identified in Newfoundland and has subsequently been found in patients from other countries including USA, Germany, and Denmark (PMID: 33831308; 18313022; 23812740). It is reported that '[the variant occurs on] a common haplotype with those from Newfoundland, USA, and Denmark, suggesting that the mutation originated from a common founder. Examination of 40 control chromosomes revealed an estimated age of 1300-1500 years for the mutation, which proves the European origin of the Newfoundland mutation.' (PMID: 24598986) The disease mechanism is largely unknown. There is no evidence currently for haploinsufficiency (https://search.clinicalgenome.org/kb/gene-dosage/HGNC:28472).
-Although ARVC is known to display incomplete penetrance, this particular founder variant appears to be more penetrant. TMEM43-related ARVC is associated with a high risk of sudden cardiac death and characteristic clinical and electrocardiographic features (PMID: 32062046). Ventricular ectopy on Holter monitoring is commonly seen and can occur early in the natural history (PMID: 22725725). PMID 21391237 described two patients with TMEM43 heterozygous missense variants in Emery Dreifuss Muscular Dystrophy Related Myopathy. Other missense variants have been reported but their pathogenicity is debated.</t>
+    <t>TMEM43-related ARVC is due to altered gene product sequence. Pathogenic variants in TMEM43 are a rare cause of ARVC (PMID: 20301310). The majority of genetic evidence comes from one founder missense variant, (NM_024334.3, c.1073C&gt;T (p.S358L)) (PMID 18313022; 21214875; 23812740; 20301310; 24598986; 33831308). This was originally identified in Newfoundland and has subsequently been found in patients from other countries including USA, Germany, and Denmark (PMID: 33831308; 18313022; 23812740). It is reported that '[the variant occurs on] a common haplotype with those from Newfoundland, USA, and Denmark, suggesting that the mutation originated from a common founder. Examination of 40 control chromosomes revealed an estimated age of 1300-1500 years for the mutation, which proves the European origin of the Newfoundland mutation.' (PMID: 24598986) The disease mechanism is largely unknown. There is no evidence currently for haploinsufficiency (https://search.clinicalgenome.org/kb/gene-dosage/HGNC:28472). Although ARVC is known to display incomplete penetrance, this particular founder variant appears to be more penetrant. TMEM43-related ARVC is associated with a high risk of sudden cardiac death and characteristic clinical and electrocardiographic features (PMID: 32062046). Ventricular ectopy on Holter monitoring is commonly seen and can occur early in the natural history (PMID: 22725725). PMID 21391237 described two patients with TMEM43 heterozygous missense variants in Emery Dreifuss Muscular Dystrophy Related Myopathy. Other missense variants have been reported but their pathogenicity is debated.</t>
   </si>
   <si>
     <t xml:space="preserve">TMEM43-related ARVC is due to **altered gene product sequence.**&lt;br/&gt; Pathogenic variants in TMEM43 are a rare cause of ARVC (PMID: 20301310).&lt;br/&gt; **The majority of genetic evidence comes from one founder missense variant, (NM_024334.3, c.1073C&gt;T (p.S358L))** (PMID 18313022; 21214875; 23812740; 20301310; 24598986; 33831308). This was originally identified in Newfoundland and has subsequently been found in patients from other countries including USA, Germany, and Denmark (PMID: 33831308; 18313022; 23812740). It is reported that '[the variant occurs on] a common haplotype with those from Newfoundland, USA, and Denmark, suggesting that the mutation originated from a common founder. Examination of 40 control chromosomes revealed an estimated age of 1300-1500 years for the mutation, which proves the European origin of the Newfoundland mutation.' (PMID:  24598986)&lt;br/&gt;  The disease mechanism is largely unknown. There is no evidence currently for haploinsufficiency (https://search.clinicalgenome.org/kb/gene-dosage/HGNC:28472).&lt;br/&gt;&lt;br/&gt; Although ARVC is known to display incomplete penetrance, this particular founder variant appears to be more penetrant.&lt;br/&gt;  TMEM43-related ARVC is associated with a high risk of sudden cardiac death and characteristic clinical and electrocardiographic features (PMID: 32062046). Ventricular ectopy on Holter monitoring is commonly seen and can occur early in the natural history (PMID: 22725725).&lt;br/&gt; PMID 21391237 described two patients with TMEM43 heterozygous missense variants in Emery Dreifuss Muscular Dystrophy Related Myopathy. Other missense variants have been reported but their pathogenicity is debated. </t>
@@ -1751,8 +1747,7 @@
     <t>TNNI3-related Hypertrophic cardiomyopathy</t>
   </si>
   <si>
-    <t>TNNI3 pathogenic variants cause HCM through altered gene product sequence. The disease mechanism is not definitively known but a review by Tardif et al reported functional studies on missense variants that found an increase in the Ca2+ sensitivity of myofilament activation (PMID: 21415410). ClinGen also conclude that missense mutations have [been] shown to affect Ca2+ binding to myofilaments containing the mutant TNNI3 (PMIDs: 16531415 and 22675533) or result in an increased myofilament response to Ca2+ (PMID: 11735257). https://search.clinicalgenome.org/kb/genes/HGNC:11947. TNNI3 variants account for approx. 3-5% of HCM cases (NBK1768; PMID: 15607392). Inheritance is autosomal dominant characterised by incomplete penetrance (PMID 26440512; 15607392; 9241277). Lorenzini et al found that subjects with TNNI3 variants had a lower penetrance than variants in MYBPC3, MYH7, and TNNT2 (PMID: 32731933). Experts commented that variants seen in TNNI3 in severe/early onset disease were more likely to be de novo in origin. Maron et al 2012 describe 4 HCM probands with both pathogenic variants in TNNI3 and MYBPC3 (PMID 21839045). In addition, 2 siblings have been reported with homozygous TNNI3 missense variants (Arg162Trp) and severe myocardial hypertrophy. Parents of the affected children are consanguineous and along with other family members harbouring the same variant in the heterozygous state, were unaffected (PMID 23270746). Multiple disease-causing sarcomeric variants appear to be associated with more severe disease. There is not enough evidence to suggest biallelic variants in TNNI3 have a distinct mechanism compared to monoallelic variants. Of note both dominant and recessive modes of inheritance have been reported in TNNI3-related DCM (PMID: 26440512). Heterozygous missense variants are the major type of pathogenic variants found. There are also reports of inframe deletions. In a systematic review, Mogensen et al reported 91% of all variants were missense variants. Six variants (Arg141Gln, Arg145Trp, Arg157Val, Arg162Gln, Ser166Phe, and Lys183Del) appeared with a particularly high frequency and were identified in 116 of the 256 probands (45%) (PMID 26440512). There are reports on ClinVar of frameshift, splice site variants and nonsense variants but these are either classified as uncertain significance/conflicting, not associated with HCM specifically or have no functional evidence to demonstrate loss of function as a mechanism. ClinGen have concluded that there is currently limited evidence to support haploinsufficiency as a mechanism. _x000D_
-Mogensen et al found that 85% of variants were identified in exons 7 and 8 (amino acid residues 125 to 210). (PMID 26440512). Similarly, Walsh et al detected a cluster of non-truncating TNNI3 variants in HCM at amino acid residues 141 to 209 (PMID: 30696458).</t>
+    <t>TNNI3 pathogenic variants cause HCM through altered gene product sequence. The disease mechanism is not definitively known but a review by Tardif et al reported functional studies on missense variants that found an increase in the Ca2+ sensitivity of myofilament activation (PMID: 21415410). ClinGen also conclude that missense mutations have [been] shown to affect Ca2+ binding to myofilaments containing the mutant TNNI3 (PMIDs: 16531415 and 22675533) or result in an increased myofilament response to Ca2+ (PMID: 11735257). https://search.clinicalgenome.org/kb/genes/HGNC:11947. TNNI3 variants account for approx. 3-5% of HCM cases (NBK1768; PMID: 15607392). Inheritance is autosomal dominant characterised by incomplete penetrance (PMID 26440512; 15607392; 9241277). Lorenzini et al found that subjects with TNNI3 variants had a lower penetrance than variants in MYBPC3, MYH7, and TNNT2 (PMID: 32731933). Experts commented that variants seen in TNNI3 in severe/early onset disease were more likely to be de novo in origin. Maron et al 2012 describe 4 HCM probands with both pathogenic variants in TNNI3 and MYBPC3 (PMID 21839045). In addition, 2 siblings have been reported with homozygous TNNI3 missense variants (Arg162Trp) and severe myocardial hypertrophy. Parents of the affected children are consanguineous and along with other family members harbouring the same variant in the heterozygous state, were unaffected (PMID 23270746). Multiple disease-causing sarcomeric variants appear to be associated with more severe disease. There is not enough evidence to suggest biallelic variants in TNNI3 have a distinct mechanism compared to monoallelic variants. Of note both dominant and recessive modes of inheritance have been reported in TNNI3-related DCM (PMID: 26440512). Heterozygous missense variants are the major type of pathogenic variants found. There are also reports of inframe deletions. In a systematic review, Mogensen et al reported 91% of all variants were missense variants. Six variants (Arg141Gln, Arg145Trp, Arg157Val, Arg162Gln, Ser166Phe, and Lys183Del) appeared with a particularly high frequency and were identified in 116 of the 256 probands (45%) (PMID 26440512). There are reports on ClinVar of frameshift, splice site variants and nonsense variants but these are either classified as uncertain significance/conflicting, not associated with HCM specifically or have no functional evidence to demonstrate loss of function as a mechanism. ClinGen have concluded that there is currently limited evidence to support haploinsufficiency as a mechanism. Mogensen et al found that 85% of variants were identified in exons 7 and 8 (amino acid residues 125 to 210). (PMID 26440512). Similarly, Walsh et al detected a cluster of non-truncating TNNI3 variants in HCM at amino acid residues 141 to 209 (PMID: 30696458).</t>
   </si>
   <si>
     <t>TNNI3 pathogenic variants cause HCM through **altered gene product sequence**. The disease mechanism is not definitively known but a review by Tardif et al reported functional studies on missense variants that found an increase in the Ca2+ sensitivity of myofilament activation (PMID: 21415410). ClinGen also conclude that 'missense mutations have [been] shown to affect Ca2+ binding to myofilaments containing the mutant TNNI3 (PMIDs: 16531415 and 22675533) or result in an increased myofilament response to Ca2+ (PMID: 11735257).' https://search.clinicalgenome.org/kb/genes/HGNC:11947.&lt;br/&gt; TNNI3 variants account for approx. 3-5% of HCM cases (NBK1768; PMID: 15607392).&lt;br/&gt;&lt;br/&gt; **Inheritance is autosomal dominant characterised by incomplete penetrance** (PMID: 26440512; 15607392; 9241277). Lorenzini et al found that subjects with TNNI3 variants had a lower penetrance than variants in MYBPC3, MYH7, and TNNT2 (PMID: 32731933). Experts commented that variants seen in TNNI3 in severe/early onset disease were more likely to be de novo in origin.&lt;br/&gt; Maron et al 2012 describe 4 HCM probands with both pathogenic variants in TNNI3 and MYBPC3 (PMID: 21839045). In addition, 2 siblings have been reported with homozygous TNNI3 missense variants (Arg162Trp) and severe myocardial hypertrophy. Parents of the affected children are consanguineous and along with other family members harbouring the same variant in the heterozygous state, were unaffected (PMID: 23270746). Multiple disease-causing sarcomeric variants appear to be associated with more severe disease. There is not enough evidence to suggest biallelic variants in TNNI3 have a distinct mechanism compared to monoallelic variants. Of note both dominant and recessive modes of inheritance have been reported in TNNI3-related DCM (PMID: 26440512).&lt;br/&gt;&lt;br/&gt; **Heterozygous missense variants are the major type of pathogenic variants found**. There are also reports of inframe deletions. In a systematic review, Mogensen et al reported 91% of all variants were missense variants. Six variants (Arg141Gln, Arg145Trp, Arg157Val, Arg162Gln, Ser166Phe, and Lys183Del) appeared with a particularly high frequency and were identified in 116 of the 256 probands (45%) (PMID: 26440512). There are reports on ClinVar of frameshift, splice site variants and nonsense variants but these are either classified as uncertain significance/conflicting, not associated with HCM specifically or have no functional evidence to demonstrate loss of function as a mechanism. ClinGen have concluded that there is currently limited evidence to support haploinsufficiency as a mechanism.&lt;br/&gt; Mogensen et al found that 85% of variants were identified in exons 7 and 8 (amino acid residues 125 - 210). (PMID: 26440512).&lt;br/&gt; Similarly, Walsh et al detected a cluster of non-truncating TNNI3 variants in HCM at amino acid residues 141-209 (PMID: 30696458).</t>
@@ -1812,8 +1807,7 @@
     <t>TPM1-related Hypertrophic cardiomyopathy</t>
   </si>
   <si>
-    <t>TPM1 pathogenic variants cause HCM through altered gene product sequence. TPM1 encodes alpha-tropomyosin which acts to place the troponin complex on cardiac actin. The mechanism is through altered function rather than haploinsufficiency - Bottinelli et al examined the Asp175Asn variant from 2 HCM patients and found equal expression of wild type and mutant alpha-tropomyosin proteins (PMID: 9440709). Gupte et al concluded that 'TPM1 mutations cause differences in protein stability, actin binding, and Tn conformation. All of these differences could converge to change the Ca2+ dependence of myosin activity' (PMID: 25548289). TPM1 variants account for &lt;3% of HCM cases (NBK1768; PMID: 7898523; 12860912). Inheritance is autosomal dominant characterised by incomplete penetrance (PMID: 32731933). There are reports of homozygous or compound heterozygous variants in TPM1. (PMID: 33642254; 32744700). A homozygous missense variant, (p.Gly3Arg), in exon 1 of TPM1 was identified in triplets (two had HCM and one patent ductus arteriosus). The parents were heterozygous for the variant and unaffected clinically and on echocardiogram (PMID: 32744700).
-Pathogenic variants are nearly always heterozygous missense variants. There is one de novo inframe deletion (6bp, 2 amino acids) associated with HCM classified as likely pathogenic on ClinVar, no additional details are given. Redwood and Robinson reviewed TPM1 variants in 2013 and reported 'at least 15 described in the current literature (Table1). Most of these mutations are unique and have been reported in only a single family or individual. Each mutation is missense causing a single amino acid substitution, and no truncation or nonsense mutations have been reported.'(PMID: 24005378). Walsh et al found that in HCM non-truncating variants across the whole TPM1 gene showed a high probability of pathogenicity. (PMID: 30696458)</t>
+    <t>TPM1 pathogenic variants cause HCM through altered gene product sequence. TPM1 encodes alpha-tropomyosin which acts to place the troponin complex on cardiac actin. The mechanism is through altered function rather than haploinsufficiency - Bottinelli et al examined the Asp175Asn variant from 2 HCM patients and found equal expression of wild type and mutant alpha-tropomyosin proteins (PMID: 9440709). Gupte et al concluded that 'TPM1 mutations cause differences in protein stability, actin binding, and Tn conformation. All of these differences could converge to change the Ca2+ dependence of myosin activity' (PMID: 25548289). TPM1 variants account for &lt;3% of HCM cases (NBK1768; PMID: 7898523; 12860912). Inheritance is autosomal dominant characterised by incomplete penetrance (PMID: 32731933). There are reports of homozygous or compound heterozygous variants in TPM1. (PMID: 33642254; 32744700). A homozygous missense variant, (p.Gly3Arg), in exon 1 of TPM1 was identified in triplets (two had HCM and one patent ductus arteriosus). The parents were heterozygous for the variant and unaffected clinically and on echocardiogram (PMID: 32744700). Pathogenic variants are nearly always heterozygous missense variants. There is one de novo inframe deletion (6bp, 2 amino acids) associated with HCM classified as likely pathogenic on ClinVar, no additional details are given. Redwood and Robinson reviewed TPM1 variants in 2013 and reported 'at least 15 described in the current literature (Table1). Most of these mutations are unique and have been reported in only a single family or individual. Each mutation is missense causing a single amino acid substitution, and no truncation or nonsense mutations have been reported.'(PMID: 24005378). Walsh et al found that in HCM non-truncating variants across the whole TPM1 gene showed a high probability of pathogenicity. (PMID: 30696458)</t>
   </si>
   <si>
     <t>TPM1 pathogenic variants cause HCM through **altered gene product sequence**. TPM1 encodes alpha-tropomyosin which acts to place the troponin complex on cardiac actin. The mechanism is through altered function rather than haploinsufficiency - Bottinelli et al examined the Asp175Asn variant from 2 HCM patients and found equal expression of wild type and mutant alpha-tropomyosin proteins (PMID: 9440709). Gupte et al concluded that 'TPM1 mutations cause differences in protein stability, actin binding, and Tn conformation. All of these differences could converge to change the Ca2+ dependence of myosin activity' (PMID: 25548289).&lt;br/&gt; TPM1 variants account for &lt;3% of HCM cases (NBK1768; PMID: 7898523; 12860912).&lt;br/&gt; **Inheritance is autosomal dominant characterised by incomplete penetrance** (PMID: 32731933). &lt;br/&gt; There are reports of homozygous or compound heterozygous variants in TPM1. (PMID: 33642254; 32744700).&lt;br/&gt; A homozygous missense variant, (p.Gly3Arg), in exon 1 of TPM1 was identified in triplets (two had HCM and one patent ductus arteriosus). The parents were heterozygous for the variant and unaffected clinically and on echocardiogram (PMID: 32744700).&lt;br/&gt;&lt;br/&gt; **Pathogenic variants are nearly always heterozygous missense variants**. There is one de novo inframe deletion (6bp, 2 amino acids) associated with HCM classified as likely pathogenic on ClinVar, no additional details are given. &lt;br/&gt; Redwood and Robinson reviewed TPM1 variants in 2013 and reported 'at least 15 described in the current literature (Table1). Most of these mutations are unique and have been reported in only a single family or individual. Each mutation is missense causing a single amino acid substitution, and no truncation or nonsense mutations have been reported.' (PMID: 24005378).&lt;br/&gt; Walsh et al found that in HCM non-truncating variants across the whole TPM1 gene showed a high probability of pathogenicity. (PMID: 30696458)</t>
@@ -1879,8 +1873,7 @@
     <t>Pathogenic variants in TTN cause an estimated 15-20% of familial DCM due to decreased gene product level and altered gene product sequence. The likely disease mechanism is loss of function however, it is unclear whether this is due to haploinsufficiency or a dominant negative effect, and it is likely that both mechanisms contribute. It is likely that the reduced function has a direct effect on the sarcomere, leading to impaired contractility. Truncating variants, specifically in exons constitutively expressed in cardiac tissue (percentage spliced in (PSI) &gt;90%) see (PMID: 25589632; 27869827; 32160020), are responsible for the vast majority of TTN-related DCM cases. Missense variants are difficult to interpret, and generally not classified as disease-causing, although there are reports of at least three missense variants with evidence of pathogenicity.TTN missense variants with segregation evidence: p.Trp976Arg (PMID: 11788824) p.Ala178Asp (PMID: 27625337) p.Cys3575Ser (https://www.biorxiv.org/content/10.1101/2020.09.05.282913v1.full.pdf) - note not yet peer reviewed. TTN-related DCM is inherited as an autosomal dominant trait and displays incomplete and age-related onset. TTN truncating variants are present in ~1% of the general population, although these variants are more likely to reside in isoforms with lower functional expression in cardiac tissue.</t>
   </si>
   <si>
-    <t>Pathogenic variants in TTN cause an estimated 15-20% of familial DCM due to **decreased gene product level and altered gene product sequence**. The likely disease mechanism is loss of function however, it is unclear whether this is due to haploinsufficiency or a dominant negative effect, and it is likely that both mechanisms contribute. It is likely that the reduced function has a direct effect on the sarcomere, leading to impaired contractility.&lt;br/&gt;  Truncating variants, specifically in exons constitutively expressed in cardiac tissue (percentage spliced in (PSI) &gt;90%) see (PMID: 25589632; 27869827; 32160020), are responsible for the vast majority of TTN-related DCM cases. Missense variants are difficult to interpret, and generally not classified as disease-causing, although there are reports of at least three missense variants with evidence of pathogenicity.  
-TTN missense variants with segregation evidence:&lt;br/&gt; p.Trp976Arg (PMID: 11788824)&lt;br/&gt; p.Ala178Asp (PMID: 27625337)&lt;br/&gt; p.Cys3575Ser (https://www.biorxiv.org/content/10.1101/2020.09.05.282913v1.full.pdf) - note not yet peer reviewed&lt;br/&gt;&lt;br/&gt; TTN-related DCM is inherited as an autosomal dominant trait and displays incomplete and age-related onset. TTN truncating variants are present in ~1% of the general population, although these variants are more likely to reside in isoforms with lower functional expression in cardiac tissue.</t>
+    <t>Pathogenic variants in TTN cause an estimated 15-20% of familial DCM due to **decreased gene product level and altered gene product sequence**. The likely disease mechanism is loss of function however, it is unclear whether this is due to haploinsufficiency or a dominant negative effect, and it is likely that both mechanisms contribute. It is likely that the reduced function has a direct effect on the sarcomere, leading to impaired contractility.&lt;br/&gt;  Truncating variants, specifically in exons constitutively expressed in cardiac tissue (percentage spliced in (PSI) &gt;90%) see (PMID: 25589632; 27869827; 32160020), are responsible for the vast majority of TTN-related DCM cases. Missense variants are difficult to interpret, and generally not classified as disease-causing, although there are reports of at least three missense variants with evidence of pathogenicity.&lt;br/&gt;TTN missense variants with segregation evidence:&lt;br/&gt; p.Trp976Arg (PMID: 11788824)&lt;br/&gt; p.Ala178Asp (PMID: 27625337)&lt;br/&gt; p.Cys3575Ser (https://www.biorxiv.org/content/10.1101/2020.09.05.282913v1.full.pdf) - note not yet peer reviewed&lt;br/&gt;&lt;br/&gt; TTN-related DCM is inherited as an autosomal dominant trait and displays incomplete and age-related onset. TTN truncating variants are present in ~1% of the general population, although these variants are more likely to reside in isoforms with lower functional expression in cardiac tissue.</t>
   </si>
   <si>
     <t>splice_acceptor_variant;splice_donor_variant;frameshift_variant;stop_gained;missense_variant;stop_gained_NMD_triggering;frameshift_variant_NMD_triggering;exon_loss_variant</t>
@@ -1990,7 +1983,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2001,6 +1994,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2038,19 +2037,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2058,17 +2048,35 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2378,40 +2386,40 @@
   <dimension ref="A1:Z98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A8" ySplit="7" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="61.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="93.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="75.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="61.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="93.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="75.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="10" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="10" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="13" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2481,21 +2489,21 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>601439</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2561,21 +2569,21 @@
       <c r="W2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="5">
+      <c r="X2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="6">
         <v>60</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>102540</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2639,21 +2647,21 @@
       <c r="W3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="6">
         <v>143</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>102573</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2717,21 +2725,21 @@
       <c r="W4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="5">
+      <c r="X4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="6">
         <v>164</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>617608</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2797,21 +2805,21 @@
       <c r="W5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" s="5">
+      <c r="X5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="6">
         <v>17574</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>617608</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2875,13 +2883,13 @@
       <c r="W6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" s="5">
+      <c r="X6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="6">
         <v>17574</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2889,7 +2897,7 @@
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>603883</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2953,21 +2961,21 @@
       <c r="W7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" s="5">
+      <c r="X7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="6">
         <v>939</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>603883</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3031,21 +3039,21 @@
       <c r="W8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" s="5">
+      <c r="X8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="6">
         <v>939</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>114205</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3109,21 +3117,21 @@
       <c r="W9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="6">
         <v>1390</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>114205</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3187,21 +3195,21 @@
       <c r="W10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="6">
         <v>1390</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>114180</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3265,21 +3273,21 @@
       <c r="W11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="6">
         <v>1442</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>114180</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3343,21 +3351,21 @@
       <c r="W12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="6">
         <v>1442</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>114182</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3421,21 +3429,21 @@
       <c r="W13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y13" s="5">
+      <c r="X13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="6">
         <v>1445</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>114182</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3499,21 +3507,21 @@
       <c r="W14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y14" s="5">
+      <c r="X14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="6">
         <v>1445</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>114183</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3577,21 +3585,21 @@
       <c r="W15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y15" s="5">
+      <c r="X15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="6">
         <v>1449</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>114183</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3655,21 +3663,21 @@
       <c r="W16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y16" s="5">
+      <c r="X16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y16" s="6">
         <v>1449</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>114251</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3733,21 +3741,21 @@
       <c r="W17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y17" s="5">
+      <c r="X17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="6">
         <v>1513</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>114251</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3813,21 +3821,21 @@
       <c r="W18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y18" s="5">
+      <c r="X18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="6">
         <v>1513</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>123590</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3893,21 +3901,21 @@
       <c r="W19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="X19" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="6">
         <v>2389</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>600824</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3973,21 +3981,21 @@
       <c r="W20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" s="5">
+      <c r="X20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" s="6">
         <v>2472</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>600824</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4053,13 +4061,13 @@
       <c r="W21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y21" s="5">
+      <c r="X21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="6">
         <v>2472</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4067,7 +4075,7 @@
       <c r="A22" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>125660</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4131,21 +4139,21 @@
       <c r="W22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y22" s="5">
+      <c r="X22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y22" s="6">
         <v>2770</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>125660</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4209,21 +4217,21 @@
       <c r="W23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="5">
+      <c r="X23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="6">
         <v>2770</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>125660</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4287,21 +4295,21 @@
       <c r="W24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y24" s="5">
+      <c r="X24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" s="6">
         <v>2770</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>125645</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4365,21 +4373,21 @@
       <c r="W25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y25" s="6">
         <v>3036</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Z25" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>125645</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4443,21 +4451,21 @@
       <c r="W26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" s="6">
         <v>3036</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>125671</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4521,21 +4529,21 @@
       <c r="W27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y27" s="5">
+      <c r="X27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y27" s="6">
         <v>3049</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>125671</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4599,21 +4607,21 @@
       <c r="W28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y28" s="5">
+      <c r="X28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" s="6">
         <v>3049</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>125647</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4677,21 +4685,21 @@
       <c r="W29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y29" s="5">
+      <c r="X29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y29" s="6">
         <v>3052</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="Z29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>125647</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4755,13 +4763,13 @@
       <c r="W30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y30" s="5">
+      <c r="X30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y30" s="6">
         <v>3052</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4769,7 +4777,7 @@
       <c r="A31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>125647</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4833,21 +4841,21 @@
       <c r="W31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y31" s="5">
+      <c r="X31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31" s="6">
         <v>3052</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="Z31" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>300163</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4911,21 +4919,21 @@
       <c r="W32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y32" s="5">
+      <c r="X32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y32" s="6">
         <v>3702</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="Z32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>609691</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4989,13 +4997,13 @@
       <c r="W33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y33" s="5">
+      <c r="X33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y33" s="6">
         <v>26178</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5003,7 +5011,7 @@
       <c r="A34" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>102565</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -5069,21 +5077,21 @@
       <c r="W34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="X34" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="Y34" s="6">
         <v>3756</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z34" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>102565</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -5147,21 +5155,21 @@
       <c r="W35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35" s="6">
         <v>3756</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Z35" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>606829</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -5227,21 +5235,21 @@
       <c r="W36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X36" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="Y36" s="5">
+      <c r="Y36" s="6">
         <v>3951</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <v>606800</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -5307,21 +5315,21 @@
       <c r="W37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y37" s="5">
+      <c r="X37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="6">
         <v>4065</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="Z37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>300644</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -5385,21 +5393,21 @@
       <c r="W38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y38" s="5">
+      <c r="X38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y38" s="6">
         <v>4296</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="Z38" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="6">
         <v>173325</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -5463,21 +5471,21 @@
       <c r="W39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="X39" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="Y39" s="5">
+      <c r="Y39" s="6">
         <v>6207</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z39" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <v>176261</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5541,21 +5549,21 @@
       <c r="W40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y40" s="5">
+      <c r="X40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y40" s="6">
         <v>6240</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="Z40" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="6">
         <v>152427</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5619,21 +5627,21 @@
       <c r="W41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="X41" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="Y41" s="5">
+      <c r="Y41" s="6">
         <v>6251</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="Z41" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>152427</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -5697,21 +5705,21 @@
       <c r="W42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="Y42" s="5">
+      <c r="Y42" s="6">
         <v>6251</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <v>600681</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -5775,21 +5783,21 @@
       <c r="W43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y43" s="5">
+      <c r="X43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y43" s="6">
         <v>6263</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="Z43" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>600681</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -5853,21 +5861,21 @@
       <c r="W44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y44" s="5">
+      <c r="X44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y44" s="6">
         <v>6263</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="Z44" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>607542</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -5933,21 +5941,21 @@
       <c r="W45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="Y45" s="5">
+      <c r="Y45" s="6">
         <v>6294</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="Z45" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>607542</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -6011,21 +6019,21 @@
       <c r="W46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="X46" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="Y46" s="5">
+      <c r="Y46" s="6">
         <v>6294</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="Z46" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <v>607542</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -6089,21 +6097,21 @@
       <c r="W47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="X47" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="Y47" s="5">
+      <c r="Y47" s="6">
         <v>6294</v>
       </c>
-      <c r="Z47" s="1" t="s">
+      <c r="Z47" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="6">
         <v>607542</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -6167,21 +6175,21 @@
       <c r="W48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X48" s="1" t="s">
+      <c r="X48" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="Y48" s="5">
+      <c r="Y48" s="6">
         <v>6294</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="Z48" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="6">
         <v>309060</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -6245,13 +6253,13 @@
       <c r="W49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y49" s="5">
+      <c r="X49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y49" s="6">
         <v>6501</v>
       </c>
-      <c r="Z49" s="1" t="s">
+      <c r="Z49" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6259,7 +6267,7 @@
       <c r="A50" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="6">
         <v>150330</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -6323,21 +6331,21 @@
       <c r="W50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="X50" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="Y50" s="5">
+      <c r="Y50" s="6">
         <v>6636</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="Z50" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="6">
         <v>600958</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -6401,13 +6409,13 @@
       <c r="W51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="X51" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="Y51" s="5">
+      <c r="Y51" s="6">
         <v>7551</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="Z51" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6415,7 +6423,7 @@
       <c r="A52" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="6">
         <v>160760</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -6479,21 +6487,21 @@
       <c r="W52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="X52" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Y52" s="6">
         <v>7577</v>
       </c>
-      <c r="Z52" s="1" t="s">
+      <c r="Z52" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="6">
         <v>160760</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -6557,21 +6565,21 @@
       <c r="W53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X53" s="1" t="s">
+      <c r="X53" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="Y53" s="5">
+      <c r="Y53" s="6">
         <v>7577</v>
       </c>
-      <c r="Z53" s="1" t="s">
+      <c r="Z53" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="6">
         <v>160781</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -6635,21 +6643,21 @@
       <c r="W54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y54" s="5">
+      <c r="X54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y54" s="6">
         <v>7583</v>
       </c>
-      <c r="Z54" s="1" t="s">
+      <c r="Z54" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="6">
         <v>160790</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -6713,21 +6721,21 @@
       <c r="W55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y55" s="5">
+      <c r="X55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y55" s="6">
         <v>7584</v>
       </c>
-      <c r="Z55" s="1" t="s">
+      <c r="Z55" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="6">
         <v>600970</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -6791,21 +6799,21 @@
       <c r="W56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="X56" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="Y56" s="5">
+      <c r="Y56" s="6">
         <v>7605</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="Z56" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="6">
         <v>600970</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -6869,21 +6877,21 @@
       <c r="W57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="X57" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="Y57" s="5">
+      <c r="Y57" s="6">
         <v>7605</v>
       </c>
-      <c r="Z57" s="1" t="s">
+      <c r="Z57" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <v>602861</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -6947,21 +6955,21 @@
       <c r="W58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y58" s="5">
+      <c r="X58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y58" s="6">
         <v>9024</v>
       </c>
-      <c r="Z58" s="1" t="s">
+      <c r="Z58" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="6">
         <v>172405</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -7025,13 +7033,13 @@
       <c r="W59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="X59" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="Y59" s="5">
+      <c r="Y59" s="6">
         <v>9080</v>
       </c>
-      <c r="Z59" s="1" t="s">
+      <c r="Z59" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7039,7 +7047,7 @@
       <c r="A60" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="6">
         <v>172405</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -7103,21 +7111,21 @@
       <c r="W60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X60" s="1" t="s">
+      <c r="X60" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="Y60" s="5">
+      <c r="Y60" s="6">
         <v>9080</v>
       </c>
-      <c r="Z60" s="1" t="s">
+      <c r="Z60" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="6">
         <v>602743</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -7181,21 +7189,21 @@
       <c r="W61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y61" s="5">
+      <c r="X61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y61" s="6">
         <v>9386</v>
       </c>
-      <c r="Z61" s="1" t="s">
+      <c r="Z61" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="6">
         <v>176876</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -7259,21 +7267,21 @@
       <c r="W62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="X62" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="Y62" s="5">
+      <c r="Y62" s="6">
         <v>9644</v>
       </c>
-      <c r="Z62" s="1" t="s">
+      <c r="Z62" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="6">
         <v>176876</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -7337,21 +7345,21 @@
       <c r="W63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X63" s="1" t="s">
+      <c r="X63" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="Y63" s="5">
+      <c r="Y63" s="6">
         <v>9644</v>
       </c>
-      <c r="Z63" s="1" t="s">
+      <c r="Z63" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="6">
         <v>164760</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -7415,13 +7423,13 @@
       <c r="W64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y64" s="5">
+      <c r="X64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y64" s="6">
         <v>9829</v>
       </c>
-      <c r="Z64" s="1" t="s">
+      <c r="Z64" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7429,7 +7437,7 @@
       <c r="A65" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="6">
         <v>613171</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -7493,21 +7501,21 @@
       <c r="W65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y65" s="5">
+      <c r="X65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y65" s="6">
         <v>27424</v>
       </c>
-      <c r="Z65" s="1" t="s">
+      <c r="Z65" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="6">
         <v>609591</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -7571,21 +7579,21 @@
       <c r="W66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X66" s="1" t="s">
+      <c r="X66" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="Y66" s="5">
+      <c r="Y66" s="6">
         <v>10023</v>
       </c>
-      <c r="Z66" s="1" t="s">
+      <c r="Z66" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="6">
         <v>180902</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -7649,21 +7657,21 @@
       <c r="W67" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X67" s="1" t="s">
+      <c r="X67" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="Y67" s="5">
+      <c r="Y67" s="6">
         <v>10484</v>
       </c>
-      <c r="Z67" s="1" t="s">
+      <c r="Z67" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="6">
         <v>600163</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -7727,21 +7735,21 @@
       <c r="W68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X68" s="1" t="s">
+      <c r="X68" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="Y68" s="5">
+      <c r="Y68" s="6">
         <v>10593</v>
       </c>
-      <c r="Z68" s="1" t="s">
+      <c r="Z68" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="6">
         <v>600163</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -7805,13 +7813,13 @@
       <c r="W69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X69" s="1" t="s">
+      <c r="X69" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="Y69" s="5">
+      <c r="Y69" s="6">
         <v>10593</v>
       </c>
-      <c r="Z69" s="1" t="s">
+      <c r="Z69" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7819,7 +7827,7 @@
       <c r="A70" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="6">
         <v>600163</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -7883,21 +7891,21 @@
       <c r="W70" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X70" s="1" t="s">
+      <c r="X70" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="Y70" s="5">
+      <c r="Y70" s="6">
         <v>10593</v>
       </c>
-      <c r="Z70" s="1" t="s">
+      <c r="Z70" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="6">
         <v>603377</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -7961,21 +7969,21 @@
       <c r="W71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X71" s="1" t="s">
+      <c r="X71" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="Y71" s="5">
+      <c r="Y71" s="6">
         <v>10969</v>
       </c>
-      <c r="Z71" s="1" t="s">
+      <c r="Z71" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="6">
         <v>103220</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -8041,21 +8049,21 @@
       <c r="W72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X72" s="1" t="s">
+      <c r="X72" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="Y72" s="5">
+      <c r="Y72" s="6">
         <v>10990</v>
       </c>
-      <c r="Z72" s="1" t="s">
+      <c r="Z72" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="6">
         <v>106195</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -8098,7 +8106,7 @@
       <c r="P73" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q73" s="5">
+      <c r="Q73" s="6">
         <v>29167417</v>
       </c>
       <c r="R73" s="1" t="s">
@@ -8119,21 +8127,21 @@
       <c r="W73" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y73" s="5">
+      <c r="X73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y73" s="6">
         <v>11029</v>
       </c>
-      <c r="Z73" s="1" t="s">
+      <c r="Z73" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="6">
         <v>617242</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -8199,21 +8207,21 @@
       <c r="W74" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y74" s="5">
+      <c r="X74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y74" s="6">
         <v>27365</v>
       </c>
-      <c r="Z74" s="1" t="s">
+      <c r="Z74" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="6">
         <v>612048</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -8277,13 +8285,13 @@
       <c r="W75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X75" s="1" t="s">
+      <c r="X75" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="Y75" s="5">
+      <c r="Y75" s="6">
         <v>28472</v>
       </c>
-      <c r="Z75" s="1" t="s">
+      <c r="Z75" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8291,7 +8299,7 @@
       <c r="A76" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="6">
         <v>191040</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -8355,21 +8363,21 @@
       <c r="W76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X76" s="1" t="s">
+      <c r="X76" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="Y76" s="5">
+      <c r="Y76" s="6">
         <v>11943</v>
       </c>
-      <c r="Z76" s="1" t="s">
+      <c r="Z76" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="6">
         <v>191040</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -8433,21 +8441,21 @@
       <c r="W77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X77" s="1" t="s">
+      <c r="X77" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="Y77" s="5">
+      <c r="Y77" s="6">
         <v>11943</v>
       </c>
-      <c r="Z77" s="1" t="s">
+      <c r="Z77" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="6">
         <v>191044</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -8511,13 +8519,13 @@
       <c r="W78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X78" s="1" t="s">
+      <c r="X78" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="Y78" s="5">
+      <c r="Y78" s="6">
         <v>11947</v>
       </c>
-      <c r="Z78" s="1" t="s">
+      <c r="Z78" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8525,7 +8533,7 @@
       <c r="A79" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="6">
         <v>191045</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -8589,21 +8597,21 @@
       <c r="W79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X79" s="1" t="s">
+      <c r="X79" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="Y79" s="5">
+      <c r="Y79" s="6">
         <v>11949</v>
       </c>
-      <c r="Z79" s="1" t="s">
+      <c r="Z79" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="6">
         <v>191045</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -8667,21 +8675,21 @@
       <c r="W80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X80" s="1" t="s">
+      <c r="X80" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="Y80" s="5">
+      <c r="Y80" s="6">
         <v>11949</v>
       </c>
-      <c r="Z80" s="1" t="s">
+      <c r="Z80" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="6">
         <v>191010</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -8745,21 +8753,21 @@
       <c r="W81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X81" s="1" t="s">
+      <c r="X81" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="Y81" s="5">
+      <c r="Y81" s="6">
         <v>12010</v>
       </c>
-      <c r="Z81" s="1" t="s">
+      <c r="Z81" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="6">
         <v>603283</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -8825,21 +8833,21 @@
       <c r="W82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y82" s="5">
+      <c r="X82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y82" s="6">
         <v>12261</v>
       </c>
-      <c r="Z82" s="1" t="s">
+      <c r="Z82" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="6">
         <v>603283</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -8905,13 +8913,13 @@
       <c r="W83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y83" s="5">
+      <c r="X83" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y83" s="6">
         <v>12261</v>
       </c>
-      <c r="Z83" s="1" t="s">
+      <c r="Z83" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8919,7 +8927,7 @@
       <c r="A84" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="6">
         <v>188840</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -8983,21 +8991,21 @@
       <c r="W84" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X84" s="1" t="s">
+      <c r="X84" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="Y84" s="5">
+      <c r="Y84" s="6">
         <v>12403</v>
       </c>
-      <c r="Z84" s="1" t="s">
+      <c r="Z84" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" hidden="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="6">
         <v>176300</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -9061,21 +9069,21 @@
       <c r="W85" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X85" s="1" t="s">
+      <c r="X85" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="Y85" s="5">
+      <c r="Y85" s="6">
         <v>12405</v>
       </c>
-      <c r="Z85" s="1" t="s">
+      <c r="Z85" s="5" t="s">
         <v>630</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="8">
         <v>102540</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -9084,31 +9092,31 @@
       <c r="D86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M86" s="6" t="s">
+      <c r="I86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N86" s="3" t="s">
@@ -9120,7 +9128,7 @@
       <c r="P86" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q86" s="8" t="s">
+      <c r="Q86" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R86" s="3" t="s">
@@ -9141,15 +9149,15 @@
       <c r="W86" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="1"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="8">
         <v>605267</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -9158,31 +9166,31 @@
       <c r="D87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H87" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M87" s="6" t="s">
+      <c r="I87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M87" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N87" s="3" t="s">
@@ -9194,7 +9202,7 @@
       <c r="P87" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q87" s="8" t="s">
+      <c r="Q87" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R87" s="3" t="s">
@@ -9215,15 +9223,15 @@
       <c r="W87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="1"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="8">
         <v>613121</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -9232,31 +9240,31 @@
       <c r="D88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M88" s="6" t="s">
+      <c r="I88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N88" s="3" t="s">
@@ -9268,7 +9276,7 @@
       <c r="P88" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q88" s="8" t="s">
+      <c r="Q88" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R88" s="3" t="s">
@@ -9289,15 +9297,15 @@
       <c r="W88" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="1"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="8">
         <v>191044</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -9306,31 +9314,31 @@
       <c r="D89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M89" s="6" t="s">
+      <c r="I89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N89" s="3" t="s">
@@ -9342,7 +9350,7 @@
       <c r="P89" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q89" s="8" t="s">
+      <c r="Q89" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R89" s="3" t="s">
@@ -9363,15 +9371,15 @@
       <c r="W89" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="1"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="8">
         <v>191010</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9380,31 +9388,31 @@
       <c r="D90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M90" s="6" t="s">
+      <c r="I90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M90" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N90" s="3" t="s">
@@ -9416,7 +9424,7 @@
       <c r="P90" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q90" s="8" t="s">
+      <c r="Q90" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R90" s="3" t="s">
@@ -9437,15 +9445,15 @@
       <c r="W90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="1"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="8">
         <v>193065</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -9454,31 +9462,31 @@
       <c r="D91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M91" s="6" t="s">
+      <c r="I91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N91" s="3" t="s">
@@ -9490,7 +9498,7 @@
       <c r="P91" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q91" s="8" t="s">
+      <c r="Q91" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R91" s="3" t="s">
@@ -9511,48 +9519,48 @@
       <c r="W91" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="1"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" hidden="1">
-      <c r="A92" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="8">
         <v>605267</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M92" s="6" t="s">
+      <c r="I92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N92" s="3" t="s">
@@ -9564,7 +9572,7 @@
       <c r="P92" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q92" s="8" t="s">
+      <c r="Q92" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R92" s="3" t="s">
@@ -9585,48 +9593,48 @@
       <c r="W92" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="1"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" hidden="1">
-      <c r="A93" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="A93" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="8">
         <v>606131</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M93" s="6" t="s">
+      <c r="I93" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M93" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N93" s="3" t="s">
@@ -9638,7 +9646,7 @@
       <c r="P93" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q93" s="8" t="s">
+      <c r="Q93" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R93" s="3" t="s">
@@ -9659,48 +9667,48 @@
       <c r="W93" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="1"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" hidden="1">
-      <c r="A94" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="A94" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="8">
         <v>590045</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M94" s="6" t="s">
+      <c r="I94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M94" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N94" s="3" t="s">
@@ -9712,7 +9720,7 @@
       <c r="P94" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q94" s="8" t="s">
+      <c r="Q94" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R94" s="3" t="s">
@@ -9733,48 +9741,48 @@
       <c r="W94" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="1"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" hidden="1">
-      <c r="A95" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="A95" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="8">
         <v>611295</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M95" s="6" t="s">
+      <c r="I95" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M95" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N95" s="3" t="s">
@@ -9786,7 +9794,7 @@
       <c r="P95" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q95" s="8" t="s">
+      <c r="Q95" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R95" s="3" t="s">
@@ -9807,27 +9815,27 @@
       <c r="W95" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="1"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" hidden="1">
-      <c r="A96" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="A96" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="8">
         <v>125660</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="7" t="s">
         <v>135</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -9836,19 +9844,19 @@
       <c r="H96" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M96" s="6" t="s">
+      <c r="I96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M96" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N96" s="3" t="s">
@@ -9860,7 +9868,7 @@
       <c r="P96" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q96" s="8" t="s">
+      <c r="Q96" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R96" s="3" t="s">
@@ -9881,27 +9889,27 @@
       <c r="W96" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="1"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" hidden="1">
-      <c r="A97" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="A97" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="8">
         <v>172405</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="7" t="s">
         <v>135</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -9910,19 +9918,19 @@
       <c r="H97" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I97" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M97" s="6" t="s">
+      <c r="I97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M97" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N97" s="3" t="s">
@@ -9934,7 +9942,7 @@
       <c r="P97" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q97" s="8" t="s">
+      <c r="Q97" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R97" s="3" t="s">
@@ -9955,48 +9963,48 @@
       <c r="W97" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="1"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" hidden="1">
-      <c r="A98" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="A98" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="8">
         <v>114205</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H98" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M98" s="6" t="s">
+      <c r="I98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M98" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N98" s="3" t="s">
@@ -10008,7 +10016,7 @@
       <c r="P98" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q98" s="8" t="s">
+      <c r="Q98" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R98" s="3" t="s">
@@ -10029,9 +10037,9 @@
       <c r="W98" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="1"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
